--- a/Leds/Face designs/layouts.xlsx
+++ b/Leds/Face designs/layouts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21075" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21075" windowHeight="12600" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
@@ -20,16 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Heart</t>
-  </si>
-  <si>
-    <t>Angry</t>
-  </si>
-  <si>
-    <t>Dead</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Start</t>
   </si>
@@ -53,6 +44,24 @@
   </si>
   <si>
     <t>Default 3 (Left)</t>
+  </si>
+  <si>
+    <t>Heart (Right)</t>
+  </si>
+  <si>
+    <t>Heart (Left)</t>
+  </si>
+  <si>
+    <t>Dead (Right)</t>
+  </si>
+  <si>
+    <t>Dead (Left)</t>
+  </si>
+  <si>
+    <t>Angry (Right)</t>
+  </si>
+  <si>
+    <t>Angry (Left)</t>
   </si>
 </sst>
 </file>
@@ -564,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -2546,7 +2555,7 @@
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -4903,7 +4912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY60"/>
   <sheetViews>
-    <sheetView topLeftCell="AZ1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AN56" sqref="AN56"/>
     </sheetView>
   </sheetViews>
@@ -4920,7 +4929,7 @@
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -7118,7 +7127,7 @@
     <row r="10" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9320,7 +9329,7 @@
     <row r="20" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -11513,7 +11522,7 @@
     <row r="30" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ31"/>
     </row>
@@ -13711,7 +13720,7 @@
     <row r="40" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BQ41"/>
     </row>
@@ -14189,7 +14198,7 @@
         <v>0</v>
       </c>
       <c r="BT43" s="2">
-        <f t="shared" ref="BT43:BT49" si="242">IF(T43=1, 1, 0)</f>
+        <f t="shared" ref="BT43:BT45" si="242">IF(T43=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="BU43" s="2">
@@ -15913,7 +15922,7 @@
     <row r="50" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="51" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BQ51"/>
     </row>
@@ -16391,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="BT53" s="2">
-        <f t="shared" ref="BT53:BT59" si="291">IF(T53=1, 1, 0)</f>
+        <f t="shared" ref="BT53:BT55" si="291">IF(T53=1, 1, 0)</f>
         <v>1</v>
       </c>
       <c r="BU53" s="2">
@@ -18113,20 +18122,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CY30"/>
+  <dimension ref="B1:CY42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34:AF36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="154" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -20381,8 +20390,7 @@
       </c>
     </row>
     <row r="10" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -20626,7 +20634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -20870,7 +20878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -21120,7 +21128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>1</v>
       </c>
@@ -21384,7 +21392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>1</v>
       </c>
@@ -21662,7 +21670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>1</v>
       </c>
@@ -21940,7 +21948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="9">
         <v>1</v>
       </c>
@@ -22234,7 +22242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="13"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
@@ -22514,9 +22522,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -22760,7 +22768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -23004,7 +23012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -23254,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>1</v>
       </c>
@@ -23518,7 +23526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>1</v>
       </c>
@@ -23782,7 +23790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>1</v>
       </c>
@@ -24050,7 +24058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:103" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:103" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>1</v>
       </c>
@@ -24338,7 +24346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:103" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="13"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -24616,7 +24624,2266 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:103" collapsed="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+      <c r="AW33" s="1"/>
+      <c r="AX33" s="1"/>
+      <c r="AY33" s="1"/>
+      <c r="BI33" s="17"/>
+      <c r="BJ33" s="18"/>
+      <c r="BQ33" s="17"/>
+      <c r="BR33" s="18"/>
+      <c r="BY33" s="17"/>
+      <c r="BZ33" s="18"/>
+    </row>
+    <row r="34" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7">
+        <v>1</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6">
+        <v>1</v>
+      </c>
+      <c r="O34" s="6">
+        <v>1</v>
+      </c>
+      <c r="P34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5">
+        <v>1</v>
+      </c>
+      <c r="S34" s="6">
+        <v>1</v>
+      </c>
+      <c r="T34" s="6">
+        <v>1</v>
+      </c>
+      <c r="U34" s="6">
+        <v>1</v>
+      </c>
+      <c r="V34" s="6">
+        <v>1</v>
+      </c>
+      <c r="W34" s="6">
+        <v>1</v>
+      </c>
+      <c r="X34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="6"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="6"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="6"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="6"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="6"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="6"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="6"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="2">
+        <f>IF(B34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC34" s="2">
+        <f t="shared" ref="BC34:BC41" si="101">IF(C34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD34" s="2">
+        <f t="shared" ref="BD34:BD41" si="102">IF(D34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE34" s="2">
+        <f t="shared" ref="BE34:BE41" si="103">IF(E34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BF34" s="2">
+        <f t="shared" ref="BF34:BF41" si="104">IF(F34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BG34" s="2">
+        <f t="shared" ref="BG34:BG41" si="105">IF(G34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH34" s="2">
+        <f t="shared" ref="BH34:BH41" si="106">IF(H34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI34" s="3">
+        <f t="shared" ref="BI34:BI41" si="107">IF(I34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ34" s="4">
+        <f t="shared" ref="BJ34:BJ41" si="108">IF(J34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK34" s="2">
+        <f t="shared" ref="BK34:BK41" si="109">IF(K34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BL34" s="2">
+        <f t="shared" ref="BL34:BL41" si="110">IF(L34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BM34" s="2">
+        <f t="shared" ref="BM34:BM41" si="111">IF(M34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN34" s="2">
+        <f t="shared" ref="BN34:BN41" si="112">IF(N34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BO34" s="2">
+        <f t="shared" ref="BO34:BO41" si="113">IF(O34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BP34" s="2">
+        <f t="shared" ref="BP34:BP41" si="114">IF(P34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ34" s="3">
+        <f t="shared" ref="BQ34:BQ41" si="115">IF(Q34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BR34" s="4">
+        <f t="shared" ref="BR34:BR41" si="116">IF(R34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BS34" s="2">
+        <f t="shared" ref="BS34:BS41" si="117">IF(S34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BT34" s="2">
+        <f t="shared" ref="BT34:BT41" si="118">IF(T34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BU34" s="2">
+        <f t="shared" ref="BU34:BU41" si="119">IF(U34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BV34" s="2">
+        <f t="shared" ref="BV34:BV41" si="120">IF(V34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BW34" s="2">
+        <f t="shared" ref="BW34:BW41" si="121">IF(W34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BX34" s="2">
+        <f t="shared" ref="BX34:BX41" si="122">IF(X34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BY34" s="3">
+        <f t="shared" ref="BY34:BY41" si="123">IF(Y34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ34" s="4">
+        <f t="shared" ref="BZ34:BZ41" si="124">IF(Z34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CA34" s="2">
+        <f t="shared" ref="CA34:CA41" si="125">IF(AA34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CB34" s="2">
+        <f t="shared" ref="CB34:CB41" si="126">IF(AB34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CC34" s="2">
+        <f t="shared" ref="CC34:CC41" si="127">IF(AC34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CD34" s="2">
+        <f t="shared" ref="CD34:CD41" si="128">IF(AD34=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CE34" s="2">
+        <f t="shared" ref="CE34:CE41" si="129">IF(AE34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF34" s="2">
+        <f t="shared" ref="CF34:CF41" si="130">IF(AF34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG34" s="2">
+        <f t="shared" ref="CG34:CG41" si="131">IF(AG34=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ34" s="2">
+        <f>AJ34</f>
+        <v>0</v>
+      </c>
+      <c r="CK34" s="2">
+        <f t="shared" ref="CK34:CK41" si="132">AK34</f>
+        <v>0</v>
+      </c>
+      <c r="CL34" s="2">
+        <f t="shared" ref="CL34:CL41" si="133">AL34</f>
+        <v>0</v>
+      </c>
+      <c r="CM34" s="2">
+        <f t="shared" ref="CM34:CM41" si="134">AM34</f>
+        <v>0</v>
+      </c>
+      <c r="CN34" s="2">
+        <f t="shared" ref="CN34:CN41" si="135">AN34</f>
+        <v>0</v>
+      </c>
+      <c r="CO34" s="2">
+        <f t="shared" ref="CO34:CO41" si="136">AO34</f>
+        <v>0</v>
+      </c>
+      <c r="CP34" s="2">
+        <f t="shared" ref="CP34:CP41" si="137">AP34</f>
+        <v>0</v>
+      </c>
+      <c r="CQ34" s="2">
+        <f t="shared" ref="CQ34:CQ41" si="138">AQ34</f>
+        <v>0</v>
+      </c>
+      <c r="CR34" s="2">
+        <f t="shared" ref="CR34:CR41" si="139">AR34</f>
+        <v>0</v>
+      </c>
+      <c r="CS34" s="2">
+        <f t="shared" ref="CS34:CS41" si="140">AS34</f>
+        <v>0</v>
+      </c>
+      <c r="CT34" s="2">
+        <f t="shared" ref="CT34:CT41" si="141">AT34</f>
+        <v>0</v>
+      </c>
+      <c r="CU34" s="2">
+        <f t="shared" ref="CU34:CU41" si="142">AU34</f>
+        <v>0</v>
+      </c>
+      <c r="CV34" s="2">
+        <f t="shared" ref="CV34:CV41" si="143">AV34</f>
+        <v>0</v>
+      </c>
+      <c r="CW34" s="2">
+        <f t="shared" ref="CW34:CW41" si="144">AW34</f>
+        <v>0</v>
+      </c>
+      <c r="CX34" s="2">
+        <f t="shared" ref="CX34:CX41" si="145">AX34</f>
+        <v>0</v>
+      </c>
+      <c r="CY34" s="2">
+        <f t="shared" ref="CY34:CY41" si="146">AY34</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B35" s="9">
+        <v>1</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="11">
+        <v>1</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>1</v>
+      </c>
+      <c r="R35" s="9">
+        <v>1</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1</v>
+      </c>
+      <c r="T35" s="10">
+        <v>1</v>
+      </c>
+      <c r="U35" s="10">
+        <v>1</v>
+      </c>
+      <c r="V35" s="10">
+        <v>1</v>
+      </c>
+      <c r="W35" s="10">
+        <v>1</v>
+      </c>
+      <c r="X35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG35" s="11"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10"/>
+      <c r="AQ35" s="11"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="10"/>
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="10"/>
+      <c r="AX35" s="10"/>
+      <c r="AY35" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="2">
+        <f t="shared" ref="BB35:BB41" si="147">IF(B35=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC35" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BD35" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE35" s="2">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BF35" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BG35" s="2">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+      <c r="BH35" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI35" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ35" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK35" s="2">
+        <f t="shared" si="109"/>
+        <v>0</v>
+      </c>
+      <c r="BL35" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="BM35" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="BN35" s="2">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+      <c r="BO35" s="2">
+        <f t="shared" si="113"/>
+        <v>1</v>
+      </c>
+      <c r="BP35" s="2">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="BQ35" s="3">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="BR35" s="4">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="BS35" s="2">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="BT35" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="BU35" s="2">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="BV35" s="2">
+        <f t="shared" si="120"/>
+        <v>1</v>
+      </c>
+      <c r="BW35" s="2">
+        <f t="shared" si="121"/>
+        <v>1</v>
+      </c>
+      <c r="BX35" s="2">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+      <c r="BY35" s="3">
+        <f t="shared" si="123"/>
+        <v>1</v>
+      </c>
+      <c r="BZ35" s="4">
+        <f t="shared" si="124"/>
+        <v>1</v>
+      </c>
+      <c r="CA35" s="2">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+      <c r="CB35" s="2">
+        <f t="shared" si="126"/>
+        <v>1</v>
+      </c>
+      <c r="CC35" s="2">
+        <f t="shared" si="127"/>
+        <v>1</v>
+      </c>
+      <c r="CD35" s="2">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+      <c r="CE35" s="2">
+        <f t="shared" si="129"/>
+        <v>1</v>
+      </c>
+      <c r="CF35" s="2">
+        <f t="shared" si="130"/>
+        <v>1</v>
+      </c>
+      <c r="CG35" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ35" s="2">
+        <f t="shared" ref="CJ35:CJ41" si="148">AJ35</f>
+        <v>0</v>
+      </c>
+      <c r="CK35" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL35" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM35" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN35" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="CO35" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="CP35" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="CQ35" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="CR35" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="CS35" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="CT35" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="CU35" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="CV35" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="CW35" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="CX35" s="2">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="CY35" s="2">
+        <f t="shared" si="146"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B36" s="9">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="10">
+        <v>1</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+      <c r="J36" s="9">
+        <v>1</v>
+      </c>
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="12"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>1</v>
+      </c>
+      <c r="R36" s="9">
+        <v>1</v>
+      </c>
+      <c r="S36" s="10">
+        <v>1</v>
+      </c>
+      <c r="T36" s="10">
+        <v>1</v>
+      </c>
+      <c r="U36" s="10">
+        <v>1</v>
+      </c>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="11"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="11"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10"/>
+      <c r="AQ36" s="11"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="10"/>
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY36" s="11"/>
+      <c r="BB36" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="BC36" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BD36" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE36" s="2">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BF36" s="2">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="BG36" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH36" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI36" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ36" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK36" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL36" s="2">
+        <f t="shared" si="110"/>
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="BN36" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO36" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP36" s="2">
+        <f t="shared" si="114"/>
+        <v>1</v>
+      </c>
+      <c r="BQ36" s="3">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+      <c r="BR36" s="4">
+        <f t="shared" si="116"/>
+        <v>1</v>
+      </c>
+      <c r="BS36" s="2">
+        <f t="shared" si="117"/>
+        <v>1</v>
+      </c>
+      <c r="BT36" s="2">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+      <c r="BU36" s="2">
+        <f t="shared" si="119"/>
+        <v>1</v>
+      </c>
+      <c r="BV36" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW36" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX36" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY36" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA36" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB36" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC36" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD36" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE36" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF36" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG36" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ36" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK36" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL36" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM36" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN36" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="CO36" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="CP36" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="CQ36" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="CR36" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="CS36" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="CT36" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="CU36" s="2">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="CV36" s="2">
+        <f t="shared" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="CW36" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="CX36" s="2">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+      <c r="CY36" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12">
+        <v>1</v>
+      </c>
+      <c r="I37" s="16">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="10">
+        <v>1</v>
+      </c>
+      <c r="L37" s="10">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="11"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="11"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10"/>
+      <c r="AQ37" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX37" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY37" s="11"/>
+      <c r="BB37" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="BC37" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BD37" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE37" s="2">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BF37" s="2">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="BG37" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH37" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI37" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ37" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK37" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL37" s="2">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="BM37" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="BN37" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO37" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP37" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="BQ37" s="3">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="BR37" s="4">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="BS37" s="2">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="BT37" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BU37" s="2">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="BV37" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW37" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX37" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY37" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ37" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA37" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB37" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC37" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD37" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE37" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF37" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG37" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ37" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK37" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL37" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM37" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN37" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="CO37" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="CP37" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="CQ37" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="CR37" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
+      <c r="CS37" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="CT37" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="CU37" s="2">
+        <f t="shared" si="142"/>
+        <v>1</v>
+      </c>
+      <c r="CV37" s="2">
+        <f t="shared" si="143"/>
+        <v>1</v>
+      </c>
+      <c r="CW37" s="2">
+        <f t="shared" si="144"/>
+        <v>1</v>
+      </c>
+      <c r="CX37" s="2">
+        <f t="shared" si="145"/>
+        <v>1</v>
+      </c>
+      <c r="CY37" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B38" s="9">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+      <c r="J38" s="9">
+        <v>1</v>
+      </c>
+      <c r="K38" s="10">
+        <v>1</v>
+      </c>
+      <c r="L38" s="10">
+        <v>1</v>
+      </c>
+      <c r="M38" s="10">
+        <v>1</v>
+      </c>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="11"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="11"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT38" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10"/>
+      <c r="AX38" s="10"/>
+      <c r="AY38" s="11"/>
+      <c r="BB38" s="2">
+        <f t="shared" si="147"/>
+        <v>1</v>
+      </c>
+      <c r="BC38" s="2">
+        <f t="shared" si="101"/>
+        <v>1</v>
+      </c>
+      <c r="BD38" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE38" s="2">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="BF38" s="2">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="BG38" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH38" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI38" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ38" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK38" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL38" s="2">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="BM38" s="2">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="BN38" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO38" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP38" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="BQ38" s="3">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="BR38" s="4">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="BS38" s="2">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="BT38" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BU38" s="2">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="BV38" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW38" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX38" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY38" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ38" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA38" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB38" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC38" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD38" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE38" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF38" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG38" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ38" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK38" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL38" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM38" s="2">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+      <c r="CN38" s="2">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+      <c r="CO38" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="CP38" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="CQ38" s="2">
+        <f t="shared" si="138"/>
+        <v>1</v>
+      </c>
+      <c r="CR38" s="2">
+        <f t="shared" si="139"/>
+        <v>1</v>
+      </c>
+      <c r="CS38" s="2">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+      <c r="CT38" s="2">
+        <f t="shared" si="141"/>
+        <v>1</v>
+      </c>
+      <c r="CU38" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="CV38" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="CW38" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="CX38" s="2">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="CY38" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11">
+        <v>1</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1</v>
+      </c>
+      <c r="K39" s="10">
+        <v>1</v>
+      </c>
+      <c r="L39" s="10">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10">
+        <v>1</v>
+      </c>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="11"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="10"/>
+      <c r="AT39" s="10"/>
+      <c r="AU39" s="10"/>
+      <c r="AV39" s="10"/>
+      <c r="AW39" s="10"/>
+      <c r="AX39" s="10"/>
+      <c r="AY39" s="11"/>
+      <c r="BB39" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="BC39" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BD39" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE39" s="2">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="BF39" s="2">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="BG39" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH39" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI39" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ39" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK39" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL39" s="2">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="BM39" s="2">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="BN39" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO39" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP39" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="BQ39" s="3">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="BR39" s="4">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="BS39" s="2">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="BT39" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BU39" s="2">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="BV39" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW39" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX39" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY39" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA39" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB39" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC39" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD39" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE39" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF39" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG39" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ39" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK39" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL39" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM39" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN39" s="2">
+        <f t="shared" si="135"/>
+        <v>1</v>
+      </c>
+      <c r="CO39" s="2">
+        <f t="shared" si="136"/>
+        <v>1</v>
+      </c>
+      <c r="CP39" s="2">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+      <c r="CQ39" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="CR39" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="CS39" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="CT39" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="CU39" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="CV39" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="CW39" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="CX39" s="2">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="CY39" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="12">
+        <v>1</v>
+      </c>
+      <c r="F40" s="12">
+        <v>1</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1</v>
+      </c>
+      <c r="K40" s="12">
+        <v>1</v>
+      </c>
+      <c r="L40" s="12">
+        <v>1</v>
+      </c>
+      <c r="M40" s="12">
+        <v>1</v>
+      </c>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="11"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="12"/>
+      <c r="AC40" s="12"/>
+      <c r="AD40" s="12"/>
+      <c r="AE40" s="12"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="11"/>
+      <c r="AH40" s="8"/>
+      <c r="AI40" s="8"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="10"/>
+      <c r="AO40" s="10"/>
+      <c r="AP40" s="10"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="9"/>
+      <c r="AS40" s="10"/>
+      <c r="AT40" s="10"/>
+      <c r="AU40" s="10"/>
+      <c r="AV40" s="10"/>
+      <c r="AW40" s="10"/>
+      <c r="AX40" s="10"/>
+      <c r="AY40" s="11"/>
+      <c r="BB40" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="BC40" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BD40" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE40" s="2">
+        <f t="shared" si="103"/>
+        <v>1</v>
+      </c>
+      <c r="BF40" s="2">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="BG40" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH40" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI40" s="3">
+        <f t="shared" si="107"/>
+        <v>1</v>
+      </c>
+      <c r="BJ40" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK40" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL40" s="2">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="BM40" s="2">
+        <f t="shared" si="111"/>
+        <v>1</v>
+      </c>
+      <c r="BN40" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO40" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP40" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="BQ40" s="3">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="BR40" s="4">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="BS40" s="2">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="BT40" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BU40" s="2">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="BV40" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW40" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX40" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY40" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ40" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA40" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB40" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC40" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD40" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE40" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF40" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG40" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ40" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK40" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL40" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM40" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN40" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="CO40" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="CP40" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="CQ40" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="CR40" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="CS40" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="CT40" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="CU40" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="CV40" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="CW40" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="CX40" s="2">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="CY40" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="14">
+        <v>1</v>
+      </c>
+      <c r="H41" s="14">
+        <v>1</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="13">
+        <v>1</v>
+      </c>
+      <c r="K41" s="14">
+        <v>1</v>
+      </c>
+      <c r="L41" s="14">
+        <v>1</v>
+      </c>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="15"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="14"/>
+      <c r="Y41" s="15"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AC41" s="14"/>
+      <c r="AD41" s="14"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="15"/>
+      <c r="AH41" s="8"/>
+      <c r="AI41" s="8"/>
+      <c r="AJ41" s="13"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="14"/>
+      <c r="AN41" s="14"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="15"/>
+      <c r="AR41" s="13"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="14"/>
+      <c r="AX41" s="14"/>
+      <c r="AY41" s="15"/>
+      <c r="BB41" s="2">
+        <f t="shared" si="147"/>
+        <v>0</v>
+      </c>
+      <c r="BC41" s="2">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+      <c r="BD41" s="2">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="BE41" s="2">
+        <f t="shared" si="103"/>
+        <v>0</v>
+      </c>
+      <c r="BF41" s="2">
+        <f t="shared" si="104"/>
+        <v>1</v>
+      </c>
+      <c r="BG41" s="2">
+        <f t="shared" si="105"/>
+        <v>1</v>
+      </c>
+      <c r="BH41" s="2">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+      <c r="BI41" s="3">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+      <c r="BJ41" s="4">
+        <f t="shared" si="108"/>
+        <v>1</v>
+      </c>
+      <c r="BK41" s="2">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+      <c r="BL41" s="2">
+        <f t="shared" si="110"/>
+        <v>1</v>
+      </c>
+      <c r="BM41" s="2">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+      <c r="BN41" s="2">
+        <f t="shared" si="112"/>
+        <v>0</v>
+      </c>
+      <c r="BO41" s="2">
+        <f t="shared" si="113"/>
+        <v>0</v>
+      </c>
+      <c r="BP41" s="2">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+      <c r="BQ41" s="3">
+        <f t="shared" si="115"/>
+        <v>0</v>
+      </c>
+      <c r="BR41" s="4">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+      <c r="BS41" s="2">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+      <c r="BT41" s="2">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="BU41" s="2">
+        <f t="shared" si="119"/>
+        <v>0</v>
+      </c>
+      <c r="BV41" s="2">
+        <f t="shared" si="120"/>
+        <v>0</v>
+      </c>
+      <c r="BW41" s="2">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+      <c r="BX41" s="2">
+        <f t="shared" si="122"/>
+        <v>0</v>
+      </c>
+      <c r="BY41" s="3">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+      <c r="BZ41" s="4">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+      <c r="CA41" s="2">
+        <f t="shared" si="125"/>
+        <v>0</v>
+      </c>
+      <c r="CB41" s="2">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="CC41" s="2">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+      <c r="CD41" s="2">
+        <f t="shared" si="128"/>
+        <v>0</v>
+      </c>
+      <c r="CE41" s="2">
+        <f t="shared" si="129"/>
+        <v>0</v>
+      </c>
+      <c r="CF41" s="2">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="CG41" s="2">
+        <f t="shared" si="131"/>
+        <v>0</v>
+      </c>
+      <c r="CJ41" s="2">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+      <c r="CK41" s="2">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+      <c r="CL41" s="2">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+      <c r="CM41" s="2">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="CN41" s="2">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="CO41" s="2">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+      <c r="CP41" s="2">
+        <f t="shared" si="137"/>
+        <v>0</v>
+      </c>
+      <c r="CQ41" s="2">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+      <c r="CR41" s="2">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+      <c r="CS41" s="2">
+        <f t="shared" si="140"/>
+        <v>0</v>
+      </c>
+      <c r="CT41" s="2">
+        <f t="shared" si="141"/>
+        <v>0</v>
+      </c>
+      <c r="CU41" s="2">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="CV41" s="2">
+        <f t="shared" si="143"/>
+        <v>0</v>
+      </c>
+      <c r="CW41" s="2">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+      <c r="CX41" s="2">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+      <c r="CY41" s="2">
+        <f t="shared" si="146"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24624,10 +26891,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CY10"/>
+  <dimension ref="B1:CY22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="AG21" sqref="B14:AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24637,7 +26904,7 @@
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BI1" s="17"/>
       <c r="BJ1" s="18"/>
@@ -26789,6 +29056,2162 @@
       </c>
     </row>
     <row r="10" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BI13" s="17"/>
+      <c r="BJ13" s="18"/>
+      <c r="BQ13" s="17"/>
+      <c r="BR13" s="18"/>
+      <c r="BY13" s="17"/>
+      <c r="BZ13" s="18"/>
+    </row>
+    <row r="14" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6">
+        <v>1</v>
+      </c>
+      <c r="O14" s="6">
+        <v>1</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
+      <c r="V14" s="6">
+        <v>1</v>
+      </c>
+      <c r="W14" s="6">
+        <v>1</v>
+      </c>
+      <c r="X14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="6"/>
+      <c r="AT14" s="6"/>
+      <c r="AU14" s="6"/>
+      <c r="AV14" s="6"/>
+      <c r="AW14" s="6">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="6"/>
+      <c r="AY14" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="2">
+        <f>IF(B14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC14" s="2">
+        <f t="shared" ref="BC14:BC21" si="5">IF(C14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD14" s="2">
+        <f t="shared" ref="BD14:BD21" si="6">IF(D14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BE14" s="2">
+        <f t="shared" ref="BE14:BE21" si="7">IF(E14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2">
+        <f t="shared" ref="BF14:BF21" si="8">IF(F14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG14" s="2">
+        <f t="shared" ref="BG14:BG21" si="9">IF(G14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BH14" s="2">
+        <f t="shared" ref="BH14:BH21" si="10">IF(H14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="3">
+        <f t="shared" ref="BI14:BI21" si="11">IF(I14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="4">
+        <f t="shared" ref="BJ14:BJ21" si="12">IF(J14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="2">
+        <f t="shared" ref="BK14:BK21" si="13">IF(K14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BL14" s="2">
+        <f t="shared" ref="BL14:BL21" si="14">IF(L14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BM14" s="2">
+        <f t="shared" ref="BM14:BM21" si="15">IF(M14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BN14" s="2">
+        <f t="shared" ref="BN14:BN21" si="16">IF(N14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BO14" s="2">
+        <f t="shared" ref="BO14:BO21" si="17">IF(O14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BP14" s="2">
+        <f t="shared" ref="BP14:BP21" si="18">IF(P14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ14" s="3">
+        <f t="shared" ref="BQ14:BQ21" si="19">IF(Q14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BR14" s="4">
+        <f t="shared" ref="BR14:BR21" si="20">IF(R14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BS14" s="2">
+        <f t="shared" ref="BS14:BS21" si="21">IF(S14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BT14" s="2">
+        <f t="shared" ref="BT14:BT21" si="22">IF(T14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BU14" s="2">
+        <f t="shared" ref="BU14:BU21" si="23">IF(U14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BV14" s="2">
+        <f t="shared" ref="BV14:BV21" si="24">IF(V14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BW14" s="2">
+        <f t="shared" ref="BW14:BW21" si="25">IF(W14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BX14" s="2">
+        <f t="shared" ref="BX14:BX21" si="26">IF(X14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BY14" s="3">
+        <f t="shared" ref="BY14:BY21" si="27">IF(Y14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ14" s="4">
+        <f t="shared" ref="BZ14:BZ21" si="28">IF(Z14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CA14" s="2">
+        <f t="shared" ref="CA14:CA21" si="29">IF(AA14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CB14" s="2">
+        <f t="shared" ref="CB14:CB21" si="30">IF(AB14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CC14" s="2">
+        <f t="shared" ref="CC14:CC21" si="31">IF(AC14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CD14" s="2">
+        <f t="shared" ref="CD14:CD21" si="32">IF(AD14=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CE14" s="2">
+        <f t="shared" ref="CE14:CE21" si="33">IF(AE14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF14" s="2">
+        <f t="shared" ref="CF14:CF21" si="34">IF(AF14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG14" s="2">
+        <f t="shared" ref="CG14:CG21" si="35">IF(AG14=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ14" s="2">
+        <f>AJ14</f>
+        <v>0</v>
+      </c>
+      <c r="CK14" s="2">
+        <f t="shared" ref="CK14:CK21" si="36">AK14</f>
+        <v>0</v>
+      </c>
+      <c r="CL14" s="2">
+        <f t="shared" ref="CL14:CL21" si="37">AL14</f>
+        <v>0</v>
+      </c>
+      <c r="CM14" s="2">
+        <f t="shared" ref="CM14:CM21" si="38">AM14</f>
+        <v>0</v>
+      </c>
+      <c r="CN14" s="2">
+        <f t="shared" ref="CN14:CN21" si="39">AN14</f>
+        <v>0</v>
+      </c>
+      <c r="CO14" s="2">
+        <f t="shared" ref="CO14:CO21" si="40">AO14</f>
+        <v>0</v>
+      </c>
+      <c r="CP14" s="2">
+        <f t="shared" ref="CP14:CP21" si="41">AP14</f>
+        <v>0</v>
+      </c>
+      <c r="CQ14" s="2">
+        <f t="shared" ref="CQ14:CQ21" si="42">AQ14</f>
+        <v>0</v>
+      </c>
+      <c r="CR14" s="2">
+        <f t="shared" ref="CR14:CR21" si="43">AR14</f>
+        <v>0</v>
+      </c>
+      <c r="CS14" s="2">
+        <f t="shared" ref="CS14:CS21" si="44">AS14</f>
+        <v>0</v>
+      </c>
+      <c r="CT14" s="2">
+        <f t="shared" ref="CT14:CT21" si="45">AT14</f>
+        <v>0</v>
+      </c>
+      <c r="CU14" s="2">
+        <f t="shared" ref="CU14:CU21" si="46">AU14</f>
+        <v>0</v>
+      </c>
+      <c r="CV14" s="2">
+        <f t="shared" ref="CV14:CV21" si="47">AV14</f>
+        <v>0</v>
+      </c>
+      <c r="CW14" s="2">
+        <f t="shared" ref="CW14:CW21" si="48">AW14</f>
+        <v>1</v>
+      </c>
+      <c r="CX14" s="2">
+        <f t="shared" ref="CX14:CX21" si="49">AX14</f>
+        <v>0</v>
+      </c>
+      <c r="CY14" s="2">
+        <f t="shared" ref="CY14:CY21" si="50">AY14</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="9">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="12">
+        <v>1</v>
+      </c>
+      <c r="M15" s="12"/>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="10">
+        <v>1</v>
+      </c>
+      <c r="T15" s="10">
+        <v>1</v>
+      </c>
+      <c r="U15" s="10">
+        <v>1</v>
+      </c>
+      <c r="V15" s="10">
+        <v>1</v>
+      </c>
+      <c r="W15" s="10">
+        <v>1</v>
+      </c>
+      <c r="X15" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="9"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY15" s="11"/>
+      <c r="BB15" s="2">
+        <f t="shared" ref="BB15:BB21" si="51">IF(B15=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC15" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE15" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BF15" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BG15" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BH15" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI15" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BK15" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BL15" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BM15" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN15" s="2">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="BO15" s="2">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="BP15" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BQ15" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="BR15" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="BS15" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BT15" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BU15" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="BV15" s="2">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="BW15" s="2">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="BX15" s="2">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="BY15" s="3">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="BZ15" s="4">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="CA15" s="2">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="CB15" s="2">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="CC15" s="2">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="CD15" s="2">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="CE15" s="2">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="CF15" s="2">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="CG15" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="2">
+        <f t="shared" ref="CJ15:CJ21" si="52">AJ15</f>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL15" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM15" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN15" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO15" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP15" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ15" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR15" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CS15" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT15" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="CU15" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="CV15" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW15" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="CX15" s="2">
+        <f t="shared" si="49"/>
+        <v>1</v>
+      </c>
+      <c r="CY15" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>1</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="9">
+        <v>1</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1</v>
+      </c>
+      <c r="L16" s="12"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>1</v>
+      </c>
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
+      <c r="S16" s="10">
+        <v>1</v>
+      </c>
+      <c r="T16" s="10">
+        <v>1</v>
+      </c>
+      <c r="U16" s="10">
+        <v>1</v>
+      </c>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX16" s="10"/>
+      <c r="AY16" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BC16" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BD16" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE16" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF16" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BG16" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BH16" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI16" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BK16" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BL16" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN16" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO16" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="2">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="BQ16" s="3">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="BR16" s="4">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="BS16" s="2">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="BT16" s="2">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="BU16" s="2">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="BV16" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW16" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX16" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY16" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA16" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB16" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC16" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD16" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE16" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF16" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG16" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ16" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK16" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL16" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM16" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN16" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO16" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP16" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ16" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR16" s="2">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CS16" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT16" s="2">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="CU16" s="2">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="CV16" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW16" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="CX16" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY16" s="2">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10">
+        <v>1</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="9"/>
+      <c r="AS17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="10"/>
+      <c r="AX17" s="10"/>
+      <c r="AY17" s="11"/>
+      <c r="BB17" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BC17" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BD17" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BI17" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO17" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR17" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC17" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD17" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE17" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF17" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG17" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ17" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK17" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL17" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM17" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO17" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP17" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ17" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR17" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CS17" s="2">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+      <c r="CT17" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="CU17" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="CV17" s="2">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+      <c r="CW17" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="CX17" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY17" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
+        <v>1</v>
+      </c>
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10">
+        <v>1</v>
+      </c>
+      <c r="I18" s="11">
+        <v>1</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS18" s="10"/>
+      <c r="AT18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX18" s="10"/>
+      <c r="AY18" s="11"/>
+      <c r="BB18" s="2">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="BC18" s="2">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BD18" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="2">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="BI18" s="3">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="2">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN18" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO18" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP18" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC18" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD18" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE18" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF18" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG18" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ18" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK18" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL18" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM18" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN18" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO18" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP18" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ18" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR18" s="2">
+        <f t="shared" si="43"/>
+        <v>1</v>
+      </c>
+      <c r="CS18" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT18" s="2">
+        <f t="shared" si="45"/>
+        <v>1</v>
+      </c>
+      <c r="CU18" s="2">
+        <f t="shared" si="46"/>
+        <v>1</v>
+      </c>
+      <c r="CV18" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW18" s="2">
+        <f t="shared" si="48"/>
+        <v>1</v>
+      </c>
+      <c r="CX18" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY18" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>1</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="9">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>1</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="9"/>
+      <c r="AS19" s="10"/>
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="10"/>
+      <c r="AX19" s="10"/>
+      <c r="AY19" s="11"/>
+      <c r="BB19" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BC19" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD19" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE19" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="BF19" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BG19" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BH19" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BK19" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BL19" s="2">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO19" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP19" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ19" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR19" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS19" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT19" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX19" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA19" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB19" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC19" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD19" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE19" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF19" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG19" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ19" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK19" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL19" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM19" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN19" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO19" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP19" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ19" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR19" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CS19" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT19" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="CU19" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="CV19" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW19" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="CX19" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY19" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12">
+        <v>1</v>
+      </c>
+      <c r="F20" s="12">
+        <v>1</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="9">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1</v>
+      </c>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="12"/>
+      <c r="AE20" s="12"/>
+      <c r="AF20" s="12"/>
+      <c r="AG20" s="11"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="11"/>
+      <c r="AR20" s="9"/>
+      <c r="AS20" s="10"/>
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="10"/>
+      <c r="AX20" s="10"/>
+      <c r="AY20" s="11"/>
+      <c r="BB20" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BC20" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD20" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE20" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BF20" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BG20" s="2">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="BH20" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI20" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ20" s="4">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="BK20" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BL20" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BM20" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN20" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO20" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP20" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ20" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR20" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS20" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT20" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU20" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV20" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW20" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX20" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY20" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA20" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB20" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC20" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD20" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE20" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF20" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG20" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ20" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK20" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL20" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM20" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN20" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO20" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP20" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ20" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR20" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CS20" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT20" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="CU20" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="CV20" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW20" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="CX20" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY20" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14">
+        <v>1</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="14"/>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="15"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="13"/>
+      <c r="AK21" s="14"/>
+      <c r="AL21" s="14"/>
+      <c r="AM21" s="14"/>
+      <c r="AN21" s="14"/>
+      <c r="AO21" s="14"/>
+      <c r="AP21" s="14"/>
+      <c r="AQ21" s="15"/>
+      <c r="AR21" s="13"/>
+      <c r="AS21" s="14"/>
+      <c r="AT21" s="14"/>
+      <c r="AU21" s="14"/>
+      <c r="AV21" s="14"/>
+      <c r="AW21" s="14"/>
+      <c r="AX21" s="14"/>
+      <c r="AY21" s="15"/>
+      <c r="BB21" s="2">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BD21" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="BE21" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="BF21" s="2">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="BG21" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="BH21" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="BI21" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="BJ21" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="BK21" s="2">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="BL21" s="2">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="BM21" s="2">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="BN21" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="BO21" s="2">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="BP21" s="2">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="BQ21" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="BR21" s="4">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="BS21" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="2">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="BV21" s="2">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="BX21" s="2">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="4">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="CA21" s="2">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="CB21" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="CC21" s="2">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="CD21" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="CE21" s="2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="CF21" s="2">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="CG21" s="2">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="CJ21" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="CK21" s="2">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="CL21" s="2">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="CM21" s="2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="CN21" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="CO21" s="2">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="CP21" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="CQ21" s="2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="CR21" s="2">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="CS21" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="CT21" s="2">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="CU21" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="CV21" s="2">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="CW21" s="2">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="CX21" s="2">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="CY21" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26796,10 +31219,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CY20"/>
+  <dimension ref="B1:CY32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="AI29" sqref="AI29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26809,7 +31232,7 @@
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="BI1" s="17"/>
       <c r="BJ1" s="18"/>
@@ -31185,6 +35608,2204 @@
       </c>
     </row>
     <row r="20" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:103" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="BI23" s="17"/>
+      <c r="BJ23" s="18"/>
+      <c r="BQ23" s="17"/>
+      <c r="BR23" s="18"/>
+      <c r="BY23" s="17"/>
+      <c r="BZ23" s="18"/>
+    </row>
+    <row r="24" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7">
+        <v>1</v>
+      </c>
+      <c r="J24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6">
+        <v>1</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1</v>
+      </c>
+      <c r="O24" s="6">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6">
+        <v>1</v>
+      </c>
+      <c r="V24" s="6">
+        <v>1</v>
+      </c>
+      <c r="W24" s="6">
+        <v>1</v>
+      </c>
+      <c r="X24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="6">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="7"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="6"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="6"/>
+      <c r="AN24" s="6"/>
+      <c r="AO24" s="6"/>
+      <c r="AP24" s="6"/>
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="6"/>
+      <c r="AT24" s="6"/>
+      <c r="AU24" s="6"/>
+      <c r="AV24" s="6"/>
+      <c r="AW24" s="6"/>
+      <c r="AX24" s="6"/>
+      <c r="AY24" s="7">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="2">
+        <f>IF(B24=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="2">
+        <f t="shared" ref="BC24:BC31" si="53">IF(C24=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="2">
+        <f t="shared" ref="BD24:BD31" si="54">IF(D24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BE24" s="2">
+        <f t="shared" ref="BE24:BE31" si="55">IF(E24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BF24" s="2">
+        <f t="shared" ref="BF24:BF31" si="56">IF(F24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BG24" s="2">
+        <f t="shared" ref="BG24:BG31" si="57">IF(G24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BH24" s="2">
+        <f t="shared" ref="BH24:BH31" si="58">IF(H24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" ref="BI24:BI31" si="59">IF(I24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="4">
+        <f t="shared" ref="BJ24:BJ31" si="60">IF(J24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BK24" s="2">
+        <f t="shared" ref="BK24:BK31" si="61">IF(K24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BL24" s="2">
+        <f t="shared" ref="BL24:BL31" si="62">IF(L24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BM24" s="2">
+        <f t="shared" ref="BM24:BM31" si="63">IF(M24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BN24" s="2">
+        <f t="shared" ref="BN24:BN31" si="64">IF(N24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BO24" s="2">
+        <f t="shared" ref="BO24:BO31" si="65">IF(O24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BP24" s="2">
+        <f t="shared" ref="BP24:BP31" si="66">IF(P24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" ref="BQ24:BQ31" si="67">IF(Q24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BR24" s="4">
+        <f t="shared" ref="BR24:BR31" si="68">IF(R24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BS24" s="2">
+        <f t="shared" ref="BS24:BS31" si="69">IF(S24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BT24" s="2">
+        <f t="shared" ref="BT24:BT31" si="70">IF(T24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BU24" s="2">
+        <f t="shared" ref="BU24:BU31" si="71">IF(U24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BV24" s="2">
+        <f t="shared" ref="BV24:BV31" si="72">IF(V24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BW24" s="2">
+        <f t="shared" ref="BW24:BW31" si="73">IF(W24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BX24" s="2">
+        <f t="shared" ref="BX24:BX31" si="74">IF(X24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" ref="BY24:BY31" si="75">IF(Y24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BZ24" s="4">
+        <f t="shared" ref="BZ24:BZ31" si="76">IF(Z24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CA24" s="2">
+        <f t="shared" ref="CA24:CA31" si="77">IF(AA24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CB24" s="2">
+        <f t="shared" ref="CB24:CB31" si="78">IF(AB24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CC24" s="2">
+        <f t="shared" ref="CC24:CC31" si="79">IF(AC24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CD24" s="2">
+        <f t="shared" ref="CD24:CD31" si="80">IF(AD24=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="CE24" s="2">
+        <f t="shared" ref="CE24:CE31" si="81">IF(AE24=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CF24" s="2">
+        <f t="shared" ref="CF24:CF31" si="82">IF(AF24=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CG24" s="2">
+        <f t="shared" ref="CG24:CG31" si="83">IF(AG24=1, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="CJ24" s="2">
+        <f>AJ24</f>
+        <v>0</v>
+      </c>
+      <c r="CK24" s="2">
+        <f t="shared" ref="CK24:CK31" si="84">AK24</f>
+        <v>0</v>
+      </c>
+      <c r="CL24" s="2">
+        <f t="shared" ref="CL24:CL31" si="85">AL24</f>
+        <v>0</v>
+      </c>
+      <c r="CM24" s="2">
+        <f t="shared" ref="CM24:CM31" si="86">AM24</f>
+        <v>0</v>
+      </c>
+      <c r="CN24" s="2">
+        <f t="shared" ref="CN24:CN31" si="87">AN24</f>
+        <v>0</v>
+      </c>
+      <c r="CO24" s="2">
+        <f t="shared" ref="CO24:CO31" si="88">AO24</f>
+        <v>0</v>
+      </c>
+      <c r="CP24" s="2">
+        <f t="shared" ref="CP24:CP31" si="89">AP24</f>
+        <v>0</v>
+      </c>
+      <c r="CQ24" s="2">
+        <f t="shared" ref="CQ24:CQ31" si="90">AQ24</f>
+        <v>0</v>
+      </c>
+      <c r="CR24" s="2">
+        <f t="shared" ref="CR24:CR31" si="91">AR24</f>
+        <v>0</v>
+      </c>
+      <c r="CS24" s="2">
+        <f t="shared" ref="CS24:CS31" si="92">AS24</f>
+        <v>0</v>
+      </c>
+      <c r="CT24" s="2">
+        <f t="shared" ref="CT24:CT31" si="93">AT24</f>
+        <v>0</v>
+      </c>
+      <c r="CU24" s="2">
+        <f t="shared" ref="CU24:CU31" si="94">AU24</f>
+        <v>0</v>
+      </c>
+      <c r="CV24" s="2">
+        <f t="shared" ref="CV24:CV31" si="95">AV24</f>
+        <v>0</v>
+      </c>
+      <c r="CW24" s="2">
+        <f t="shared" ref="CW24:CW31" si="96">AW24</f>
+        <v>0</v>
+      </c>
+      <c r="CX24" s="2">
+        <f t="shared" ref="CX24:CX31" si="97">AX24</f>
+        <v>0</v>
+      </c>
+      <c r="CY24" s="2">
+        <f t="shared" ref="CY24:CY31" si="98">AY24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B25" s="9">
+        <v>1</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>1</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1</v>
+      </c>
+      <c r="J25" s="9">
+        <v>1</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="12">
+        <v>1</v>
+      </c>
+      <c r="M25" s="12">
+        <v>1</v>
+      </c>
+      <c r="N25" s="10">
+        <v>1</v>
+      </c>
+      <c r="O25" s="10">
+        <v>1</v>
+      </c>
+      <c r="P25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1</v>
+      </c>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>1</v>
+      </c>
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
+      <c r="W25" s="10">
+        <v>1</v>
+      </c>
+      <c r="X25" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="11"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10"/>
+      <c r="AQ25" s="11"/>
+      <c r="AR25" s="9"/>
+      <c r="AS25" s="10"/>
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="10"/>
+      <c r="AX25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY25" s="11">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="2">
+        <f t="shared" ref="BB25:BB31" si="99">IF(B25=1, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="BC25" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BD25" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="BE25" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="2">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="BH25" s="2">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="BI25" s="3">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="4">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="BK25" s="2">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BL25" s="2">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="BM25" s="2">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="BN25" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="BO25" s="2">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="BP25" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="BQ25" s="3">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="BR25" s="4">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="BS25" s="2">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="BT25" s="2">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="BU25" s="2">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="BV25" s="2">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+      <c r="BW25" s="2">
+        <f t="shared" si="73"/>
+        <v>1</v>
+      </c>
+      <c r="BX25" s="2">
+        <f t="shared" si="74"/>
+        <v>1</v>
+      </c>
+      <c r="BY25" s="3">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="BZ25" s="4">
+        <f t="shared" si="76"/>
+        <v>1</v>
+      </c>
+      <c r="CA25" s="2">
+        <f t="shared" si="77"/>
+        <v>1</v>
+      </c>
+      <c r="CB25" s="2">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+      <c r="CC25" s="2">
+        <f t="shared" si="79"/>
+        <v>1</v>
+      </c>
+      <c r="CD25" s="2">
+        <f t="shared" si="80"/>
+        <v>1</v>
+      </c>
+      <c r="CE25" s="2">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="CF25" s="2">
+        <f t="shared" si="82"/>
+        <v>1</v>
+      </c>
+      <c r="CG25" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ25" s="2">
+        <f t="shared" ref="CJ25:CJ31" si="100">AJ25</f>
+        <v>0</v>
+      </c>
+      <c r="CK25" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL25" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM25" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN25" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="CO25" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="CP25" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="CQ25" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CR25" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CS25" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CT25" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="CU25" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="CV25" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CW25" s="2">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="CX25" s="2">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="CY25" s="2">
+        <f t="shared" si="98"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>1</v>
+      </c>
+      <c r="R26" s="9">
+        <v>1</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1</v>
+      </c>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>1</v>
+      </c>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="11"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AN26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR26" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY26" s="11"/>
+      <c r="BB26" s="2">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="BC26" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BD26" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BE26" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BF26" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BG26" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH26" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BI26" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BJ26" s="4">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BK26" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BL26" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BN26" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BO26" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="BP26" s="2">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+      <c r="BQ26" s="3">
+        <f t="shared" si="67"/>
+        <v>1</v>
+      </c>
+      <c r="BR26" s="4">
+        <f t="shared" si="68"/>
+        <v>1</v>
+      </c>
+      <c r="BS26" s="2">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="BT26" s="2">
+        <f t="shared" si="70"/>
+        <v>1</v>
+      </c>
+      <c r="BU26" s="2">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="BV26" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW26" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX26" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY26" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA26" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB26" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC26" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD26" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE26" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF26" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ26" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK26" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL26" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM26" s="2">
+        <f t="shared" si="86"/>
+        <v>1</v>
+      </c>
+      <c r="CN26" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="CO26" s="2">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="CP26" s="2">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="CQ26" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="CR26" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="CS26" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="CT26" s="2">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="CU26" s="2">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="CV26" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="CW26" s="2">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="CX26" s="2">
+        <f t="shared" si="97"/>
+        <v>1</v>
+      </c>
+      <c r="CY26" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
+        <v>1</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+      <c r="E27" s="12">
+        <v>1</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="12">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16">
+        <v>1</v>
+      </c>
+      <c r="J27" s="9">
+        <v>1</v>
+      </c>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="10">
+        <v>1</v>
+      </c>
+      <c r="M27" s="10">
+        <v>1</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1</v>
+      </c>
+      <c r="O27" s="10">
+        <v>1</v>
+      </c>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="11">
+        <v>1</v>
+      </c>
+      <c r="AR27" s="9">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AW27" s="10">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="10"/>
+      <c r="AY27" s="11"/>
+      <c r="BB27" s="2">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="BC27" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BD27" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="BE27" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="BF27" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BG27" s="2">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="BH27" s="2">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="BI27" s="3">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="4">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="BK27" s="2">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BL27" s="2">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="BM27" s="2">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="BN27" s="2">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="BO27" s="2">
+        <f t="shared" si="65"/>
+        <v>1</v>
+      </c>
+      <c r="BP27" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="BQ27" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="BR27" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BS27" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BT27" s="2">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BU27" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BV27" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW27" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX27" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY27" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA27" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB27" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC27" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD27" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE27" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF27" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG27" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ27" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK27" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL27" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM27" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN27" s="2">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+      <c r="CO27" s="2">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="CP27" s="2">
+        <f t="shared" si="89"/>
+        <v>1</v>
+      </c>
+      <c r="CQ27" s="2">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+      <c r="CR27" s="2">
+        <f t="shared" si="91"/>
+        <v>1</v>
+      </c>
+      <c r="CS27" s="2">
+        <f t="shared" si="92"/>
+        <v>1</v>
+      </c>
+      <c r="CT27" s="2">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+      <c r="CU27" s="2">
+        <f t="shared" si="94"/>
+        <v>1</v>
+      </c>
+      <c r="CV27" s="2">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="CW27" s="2">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+      <c r="CX27" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CY27" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
+        <v>1</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10">
+        <v>1</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
+      <c r="J28" s="9">
+        <v>1</v>
+      </c>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="10">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="11"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="11"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="11"/>
+      <c r="AR28" s="9"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="11"/>
+      <c r="BB28" s="2">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+      <c r="BC28" s="2">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+      <c r="BD28" s="2">
+        <f t="shared" si="54"/>
+        <v>1</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="55"/>
+        <v>1</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="BG28" s="2">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+      <c r="BH28" s="2">
+        <f t="shared" si="58"/>
+        <v>1</v>
+      </c>
+      <c r="BI28" s="3">
+        <f t="shared" si="59"/>
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="4">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+      <c r="BK28" s="2">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="BL28" s="2">
+        <f t="shared" si="62"/>
+        <v>1</v>
+      </c>
+      <c r="BM28" s="2">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+      <c r="BN28" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BO28" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="BP28" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="BQ28" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="BR28" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BS28" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BT28" s="2">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BU28" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BV28" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW28" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX28" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY28" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA28" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB28" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC28" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD28" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE28" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF28" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG28" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ28" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK28" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL28" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM28" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN28" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="CO28" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="CP28" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="CQ28" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CR28" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CS28" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CT28" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="CU28" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="CV28" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CW28" s="2">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="CX28" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CY28" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="11"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="11"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="11"/>
+      <c r="AR29" s="9"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="11"/>
+      <c r="BB29" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC29" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BD29" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BE29" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BF29" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BG29" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH29" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="4">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BK29" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BM29" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BN29" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BO29" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="BQ29" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="BR29" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BS29" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BT29" s="2">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BU29" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BV29" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW29" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX29" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY29" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA29" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB29" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC29" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD29" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE29" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF29" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ29" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK29" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL29" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM29" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN29" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="CO29" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="CP29" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="CQ29" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CR29" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CS29" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CT29" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="CU29" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="CV29" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CW29" s="2">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="CX29" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CY29" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:103" x14ac:dyDescent="0.25">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
+      <c r="X30" s="12"/>
+      <c r="Y30" s="11"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
+      <c r="AF30" s="12"/>
+      <c r="AG30" s="11"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="11"/>
+      <c r="AR30" s="9"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="11"/>
+      <c r="BB30" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC30" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BD30" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BE30" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH30" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BI30" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="4">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BK30" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BM30" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BN30" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BO30" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="BR30" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BS30" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BT30" s="2">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BU30" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BV30" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW30" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX30" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY30" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA30" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB30" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC30" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD30" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE30" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF30" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ30" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK30" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL30" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM30" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN30" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="CO30" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="CP30" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="CQ30" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CR30" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CS30" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CT30" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="CU30" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="CV30" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CW30" s="2">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="CX30" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CY30" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="14"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="13"/>
+      <c r="AK31" s="14"/>
+      <c r="AL31" s="14"/>
+      <c r="AM31" s="14"/>
+      <c r="AN31" s="14"/>
+      <c r="AO31" s="14"/>
+      <c r="AP31" s="14"/>
+      <c r="AQ31" s="15"/>
+      <c r="AR31" s="13"/>
+      <c r="AS31" s="14"/>
+      <c r="AT31" s="14"/>
+      <c r="AU31" s="14"/>
+      <c r="AV31" s="14"/>
+      <c r="AW31" s="14"/>
+      <c r="AX31" s="14"/>
+      <c r="AY31" s="15"/>
+      <c r="BB31" s="2">
+        <f t="shared" si="99"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="2">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="BD31" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="2">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="2">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="BH31" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="3">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="BJ31" s="4">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="BK31" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="BL31" s="2">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="BM31" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="BN31" s="2">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="BO31" s="2">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+      <c r="BP31" s="2">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="3">
+        <f t="shared" si="67"/>
+        <v>0</v>
+      </c>
+      <c r="BR31" s="4">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="BS31" s="2">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="BT31" s="2">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="BU31" s="2">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="BV31" s="2">
+        <f t="shared" si="72"/>
+        <v>0</v>
+      </c>
+      <c r="BW31" s="2">
+        <f t="shared" si="73"/>
+        <v>0</v>
+      </c>
+      <c r="BX31" s="2">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+      <c r="BY31" s="3">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="4">
+        <f t="shared" si="76"/>
+        <v>0</v>
+      </c>
+      <c r="CA31" s="2">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+      <c r="CB31" s="2">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="CC31" s="2">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="CD31" s="2">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="CE31" s="2">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
+      <c r="CF31" s="2">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
+      <c r="CG31" s="2">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+      <c r="CJ31" s="2">
+        <f t="shared" si="100"/>
+        <v>0</v>
+      </c>
+      <c r="CK31" s="2">
+        <f t="shared" si="84"/>
+        <v>0</v>
+      </c>
+      <c r="CL31" s="2">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
+      <c r="CM31" s="2">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+      <c r="CN31" s="2">
+        <f t="shared" si="87"/>
+        <v>0</v>
+      </c>
+      <c r="CO31" s="2">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
+      <c r="CP31" s="2">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+      <c r="CQ31" s="2">
+        <f t="shared" si="90"/>
+        <v>0</v>
+      </c>
+      <c r="CR31" s="2">
+        <f t="shared" si="91"/>
+        <v>0</v>
+      </c>
+      <c r="CS31" s="2">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+      <c r="CT31" s="2">
+        <f t="shared" si="93"/>
+        <v>0</v>
+      </c>
+      <c r="CU31" s="2">
+        <f t="shared" si="94"/>
+        <v>0</v>
+      </c>
+      <c r="CV31" s="2">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+      <c r="CW31" s="2">
+        <f t="shared" si="96"/>
+        <v>0</v>
+      </c>
+      <c r="CX31" s="2">
+        <f t="shared" si="97"/>
+        <v>0</v>
+      </c>
+      <c r="CY31" s="2">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:103" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31205,7 +37826,7 @@
   <sheetData>
     <row r="1" spans="2:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI1" s="17"/>
       <c r="BJ1" s="18"/>

--- a/Leds/Face designs/layouts.xlsx
+++ b/Leds/Face designs/layouts.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="21075" windowHeight="12600" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="21075" windowHeight="12600" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
@@ -18124,7 +18124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" workbookViewId="0">
       <selection activeCell="N34" sqref="N34:AF36"/>
     </sheetView>
   </sheetViews>
@@ -26893,8 +26893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CY22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AG21" sqref="B14:AG21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AQ19" sqref="AQ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27468,15 +27468,27 @@
       <c r="AK4" s="10"/>
       <c r="AL4" s="10"/>
       <c r="AM4" s="10"/>
-      <c r="AN4" s="10"/>
+      <c r="AN4" s="10">
+        <v>1</v>
+      </c>
       <c r="AO4" s="10"/>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="11"/>
+      <c r="AP4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="11">
+        <v>1</v>
+      </c>
       <c r="AR4" s="9"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
+      <c r="AS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="10">
+        <v>1</v>
+      </c>
       <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
+      <c r="AV4" s="10">
+        <v>1</v>
+      </c>
       <c r="AW4" s="10"/>
       <c r="AX4" s="10"/>
       <c r="AY4" s="11"/>
@@ -27626,7 +27638,7 @@
       </c>
       <c r="CN4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO4" s="2">
         <f t="shared" si="2"/>
@@ -27634,11 +27646,11 @@
       </c>
       <c r="CP4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR4" s="2">
         <f t="shared" si="2"/>
@@ -27646,11 +27658,11 @@
       </c>
       <c r="CS4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU4" s="2">
         <f t="shared" si="2"/>
@@ -27658,7 +27670,7 @@
       </c>
       <c r="CV4" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW4" s="2">
         <f t="shared" si="2"/>
@@ -27721,23 +27733,21 @@
       <c r="AL5" s="10"/>
       <c r="AM5" s="10"/>
       <c r="AN5" s="10"/>
-      <c r="AO5" s="10"/>
+      <c r="AO5" s="10">
+        <v>1</v>
+      </c>
       <c r="AP5" s="10"/>
       <c r="AQ5" s="11"/>
       <c r="AR5" s="9">
         <v>1</v>
       </c>
       <c r="AS5" s="10"/>
-      <c r="AT5" s="10">
-        <v>1</v>
-      </c>
+      <c r="AT5" s="10"/>
       <c r="AU5" s="10">
         <v>1</v>
       </c>
       <c r="AV5" s="10"/>
-      <c r="AW5" s="10">
-        <v>1</v>
-      </c>
+      <c r="AW5" s="10"/>
       <c r="AX5" s="10"/>
       <c r="AY5" s="11"/>
       <c r="BB5" s="2">
@@ -27890,7 +27900,7 @@
       </c>
       <c r="CO5" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP5" s="2">
         <f t="shared" si="2"/>
@@ -27910,7 +27920,7 @@
       </c>
       <c r="CT5" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU5" s="2">
         <f t="shared" si="2"/>
@@ -27922,7 +27932,7 @@
       </c>
       <c r="CW5" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX5" s="2">
         <f t="shared" si="2"/>
@@ -27980,15 +27990,23 @@
       <c r="AK6" s="10"/>
       <c r="AL6" s="10"/>
       <c r="AM6" s="10"/>
-      <c r="AN6" s="10"/>
+      <c r="AN6" s="10">
+        <v>1</v>
+      </c>
       <c r="AO6" s="10"/>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="11"/>
+      <c r="AP6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="11">
+        <v>1</v>
+      </c>
       <c r="AR6" s="9"/>
       <c r="AS6" s="10">
         <v>1</v>
       </c>
-      <c r="AT6" s="10"/>
+      <c r="AT6" s="10">
+        <v>1</v>
+      </c>
       <c r="AU6" s="10"/>
       <c r="AV6" s="10">
         <v>1</v>
@@ -28142,7 +28160,7 @@
       </c>
       <c r="CN6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO6" s="2">
         <f t="shared" si="2"/>
@@ -28150,11 +28168,11 @@
       </c>
       <c r="CP6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR6" s="2">
         <f t="shared" si="2"/>
@@ -28166,7 +28184,7 @@
       </c>
       <c r="CT6" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU6" s="2">
         <f t="shared" si="2"/>
@@ -28256,16 +28274,10 @@
       <c r="AO7" s="10"/>
       <c r="AP7" s="10"/>
       <c r="AQ7" s="11"/>
-      <c r="AR7" s="9">
-        <v>1</v>
-      </c>
+      <c r="AR7" s="9"/>
       <c r="AS7" s="10"/>
-      <c r="AT7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="10">
-        <v>1</v>
-      </c>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
       <c r="AV7" s="10"/>
       <c r="AW7" s="10">
         <v>1</v>
@@ -28436,7 +28448,7 @@
       </c>
       <c r="CR7" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS7" s="2">
         <f t="shared" si="2"/>
@@ -28444,11 +28456,11 @@
       </c>
       <c r="CT7" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU7" s="2">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV7" s="2">
         <f t="shared" si="2"/>
@@ -29724,16 +29736,10 @@
       <c r="AO16" s="10"/>
       <c r="AP16" s="10"/>
       <c r="AQ16" s="11"/>
-      <c r="AR16" s="9">
-        <v>1</v>
-      </c>
+      <c r="AR16" s="9"/>
       <c r="AS16" s="10"/>
-      <c r="AT16" s="10">
-        <v>1</v>
-      </c>
-      <c r="AU16" s="10">
-        <v>1</v>
-      </c>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
       <c r="AV16" s="10"/>
       <c r="AW16" s="10">
         <v>1</v>
@@ -29904,7 +29910,7 @@
       </c>
       <c r="CR16" s="2">
         <f t="shared" si="43"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS16" s="2">
         <f t="shared" si="44"/>
@@ -29912,11 +29918,11 @@
       </c>
       <c r="CT16" s="2">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU16" s="2">
         <f t="shared" si="46"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV16" s="2">
         <f t="shared" si="47"/>
@@ -29982,15 +29988,23 @@
       <c r="AK17" s="10"/>
       <c r="AL17" s="10"/>
       <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
+      <c r="AN17" s="10">
+        <v>1</v>
+      </c>
       <c r="AO17" s="10"/>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="11"/>
+      <c r="AP17" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>1</v>
+      </c>
       <c r="AR17" s="9"/>
       <c r="AS17" s="10">
         <v>1</v>
       </c>
-      <c r="AT17" s="10"/>
+      <c r="AT17" s="10">
+        <v>1</v>
+      </c>
       <c r="AU17" s="10"/>
       <c r="AV17" s="10">
         <v>1</v>
@@ -30144,7 +30158,7 @@
       </c>
       <c r="CN17" s="2">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO17" s="2">
         <f t="shared" si="40"/>
@@ -30152,11 +30166,11 @@
       </c>
       <c r="CP17" s="2">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ17" s="2">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR17" s="2">
         <f t="shared" si="43"/>
@@ -30168,7 +30182,7 @@
       </c>
       <c r="CT17" s="2">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU17" s="2">
         <f t="shared" si="46"/>
@@ -30239,23 +30253,21 @@
       <c r="AL18" s="10"/>
       <c r="AM18" s="10"/>
       <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
+      <c r="AO18" s="10">
+        <v>1</v>
+      </c>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="11"/>
       <c r="AR18" s="9">
         <v>1</v>
       </c>
       <c r="AS18" s="10"/>
-      <c r="AT18" s="10">
-        <v>1</v>
-      </c>
+      <c r="AT18" s="10"/>
       <c r="AU18" s="10">
         <v>1</v>
       </c>
       <c r="AV18" s="10"/>
-      <c r="AW18" s="10">
-        <v>1</v>
-      </c>
+      <c r="AW18" s="10"/>
       <c r="AX18" s="10"/>
       <c r="AY18" s="11"/>
       <c r="BB18" s="2">
@@ -30408,7 +30420,7 @@
       </c>
       <c r="CO18" s="2">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CP18" s="2">
         <f t="shared" si="41"/>
@@ -30428,7 +30440,7 @@
       </c>
       <c r="CT18" s="2">
         <f t="shared" si="45"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CU18" s="2">
         <f t="shared" si="46"/>
@@ -30440,7 +30452,7 @@
       </c>
       <c r="CW18" s="2">
         <f t="shared" si="48"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX18" s="2">
         <f t="shared" si="49"/>
@@ -30498,15 +30510,27 @@
       <c r="AK19" s="10"/>
       <c r="AL19" s="10"/>
       <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
+      <c r="AN19" s="10">
+        <v>1</v>
+      </c>
       <c r="AO19" s="10"/>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="11"/>
+      <c r="AP19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>1</v>
+      </c>
       <c r="AR19" s="9"/>
-      <c r="AS19" s="10"/>
-      <c r="AT19" s="10"/>
+      <c r="AS19" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="10">
+        <v>1</v>
+      </c>
       <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
+      <c r="AV19" s="10">
+        <v>1</v>
+      </c>
       <c r="AW19" s="10"/>
       <c r="AX19" s="10"/>
       <c r="AY19" s="11"/>
@@ -30656,7 +30680,7 @@
       </c>
       <c r="CN19" s="2">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CO19" s="2">
         <f t="shared" si="40"/>
@@ -30664,11 +30688,11 @@
       </c>
       <c r="CP19" s="2">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CQ19" s="2">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CR19" s="2">
         <f t="shared" si="43"/>
@@ -30676,11 +30700,11 @@
       </c>
       <c r="CS19" s="2">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CT19" s="2">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CU19" s="2">
         <f t="shared" si="46"/>
@@ -30688,7 +30712,7 @@
       </c>
       <c r="CV19" s="2">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CW19" s="2">
         <f t="shared" si="48"/>
